--- a/tut05/output/0401CS30.xlsx
+++ b/tut05/output/0401CS30.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.020408163265307</v>
+        <v>9.02</v>
       </c>
       <c r="C6" t="n">
-        <v>8.136363636363637</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>8.720930232558139</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.74468085106383</v>
+        <v>8.74</v>
       </c>
       <c r="F6" t="n">
-        <v>8.785714285714286</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.425000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="H6" t="n">
-        <v>9.146341463414634</v>
+        <v>9.15</v>
       </c>
       <c r="I6" t="n">
         <v>9.4</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.020408163265307</v>
+        <v>9.02</v>
       </c>
       <c r="C8" t="n">
-        <v>8.602150537634408</v>
+        <v>8.6</v>
       </c>
       <c r="D8" t="n">
-        <v>8.639705882352942</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.666666666666666</v>
+        <v>8.67</v>
       </c>
       <c r="F8" t="n">
-        <v>8.688888888888888</v>
+        <v>8.69</v>
       </c>
       <c r="G8" t="n">
-        <v>8.649056603773586</v>
+        <v>8.65</v>
       </c>
       <c r="H8" t="n">
-        <v>8.715686274509803</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.794797687861271</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
   </sheetData>
